--- a/medicine/Mort/Catacombes_lointaines/Catacombes_lointaines.xlsx
+++ b/medicine/Mort/Catacombes_lointaines/Catacombes_lointaines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les catacombes lointaines (ukrainien : Дальні печери, sont des grottes historiques et un lieu de sépultures en Ukraine à Kiev qui font partie de la laure des Grottes de Kiev. Les catacombes lointaines mesurent une longueur totale de 293 mètres.
 Théodose des Grottes, l'un des fondateurs des Laures était enterré dans sa cellule qui se trouvait dans les catacombes lointaines, ses reliques furent translatées en 1091 en la cathédrale de l'Assomption.
